--- a/medicine/Enfance/Langelot_et_le_Sous-Marin_jaune/Langelot_et_le_Sous-Marin_jaune.xlsx
+++ b/medicine/Enfance/Langelot_et_le_Sous-Marin_jaune/Langelot_et_le_Sous-Marin_jaune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Langelot et le Sous-Marin jaune est le seizième roman de la série Langelot, écrite par le Lieutenant X. Ce roman a été édité pour la première fois en 1971, dans la Bibliothèque verte, où il porte le no 456.
@@ -512,7 +524,9 @@
           <t>Titre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le titre est étrange dans le sens où aucun « sous-marin jaune » n'intervient dans le cours du récit ; l'expression est utilisée par le héros pour servir d'appât à un honorable correspondant.
 Le titre fait sans doute référence à la chanson Yellow Submarine (parue en 1966) du groupe de pop rock anglais The Beatles. Cette référence n'est évoquée sous aucune forme, tout au long du roman.
@@ -544,7 +558,9 @@
           <t>Personnages principaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Langelot (alias Jean Normand) : agent du Service National d'Information Fonctionnelle (SNIF), blond, 1,68 m, mince, « traits menus mais durs ». Indicatif dans ses messages au SNIF : « Insulaire 2 ».
 Orlando Orlandini, séducteur, homme de main du SPHINX.
@@ -586,7 +602,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Service National d'Information Fonctionnelle dispose d'un honorable correspondant (en abrégé : HC) aux Îles Baléares, rémunéré pour donner des informations diverses, notamment sur les navires qui croisent au large de l'archipel ou qui s'y ravitaillent.
 Or, depuis quelques mois, cet honorable correspondant ne donne plus aucune information pertinente : est-il mort ? est-il passé au service d'un pays ennemi ou concurrent ? Établir la vérité quant à la situation de cet "HC" est d'autant plus essentiel que depuis quelque temps, des pétroliers français et anglais sont mystérieusement coulés au large des Baléares.
@@ -626,7 +644,9 @@
           <t>Les différentes éditions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1971 - Hachette, Bibliothèque verte (français, version originale). Illustré par Maurice Paulin.
 1974 - Hachette, Bibliothèque verte. Illustré par Maurice Paulin.
@@ -658,14 +678,16 @@
           <t>Remarques autour du roman</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Yellow Submarine, « le Sous-marin Jaune », chanson des Beatles, est diffusée avec un fort succès depuis le 5 août 1966. Le film Yellow Submarine est paru le 17 juillet 1968.
 Pour se faire remarquer, Langelot prétend attendre un sous-marin japonais qu'il appelle « sous-marin jaune », alors qu'il est notoire que le Japon n'a alors pas de tel navire ; ce pays utilise des sous-marins à partir de 1976. L'éloignement du Japon et des Baléares attise également la curiosité.
 La dictature du général Franco, alors au terme de son pouvoir lors de la publication du roman, est totalement passée sous silence. Le livre paraît en 1971, le général Franco mourra en 1975. Les îles Baléares connaissent un fort développement touristique à partir de 1965 ; celle d'Ibiza, en particulier, a été ouverte par le régime depuis les années 1960.
-Dans ce roman, Langelot utilise un autre roman, Les Mousquetaires de la république, pour coder et pour décoder ses messages radio avec le SNIF (page 47 de l'édition Hachette) ; cet autre roman, paru en 1964, a pour auteur Vladimir Volkoff[1], qui sème ainsi un indice quant à l'identité du Lieutenant X***.
-Le livre évoque un réseau de passeurs entre l'Europe et l'Amérique du Sud (Argentine), dirigé par un allemand Otto Schultz/Ramon Lopez, au passé trouble. De fait, Ibiza a pu servir de lieu de transit, voire de refuge, pour d'anciens nazis après la défaite de 1945[2]. Par exemple, Emil(io) Schillinger[3] a ouvert à Ibiza, dans les années cinquante, la galerie de peinture El Corsario[4], qui deviendra l'hôtel-restaurant du même nom, fameux à Ibiza[5]. Langelot y dîne (page 115).
-Langelot descend à l'hôtel Montesol (Gran Hotel Montesol), inauguré à Ibiza en 1933[6].
+Dans ce roman, Langelot utilise un autre roman, Les Mousquetaires de la république, pour coder et pour décoder ses messages radio avec le SNIF (page 47 de l'édition Hachette) ; cet autre roman, paru en 1964, a pour auteur Vladimir Volkoff, qui sème ainsi un indice quant à l'identité du Lieutenant X***.
+Le livre évoque un réseau de passeurs entre l'Europe et l'Amérique du Sud (Argentine), dirigé par un allemand Otto Schultz/Ramon Lopez, au passé trouble. De fait, Ibiza a pu servir de lieu de transit, voire de refuge, pour d'anciens nazis après la défaite de 1945. Par exemple, Emil(io) Schillinger a ouvert à Ibiza, dans les années cinquante, la galerie de peinture El Corsario, qui deviendra l'hôtel-restaurant du même nom, fameux à Ibiza. Langelot y dîne (page 115).
+Langelot descend à l'hôtel Montesol (Gran Hotel Montesol), inauguré à Ibiza en 1933.
 Langelot reviendra aux Baléares pour sa vingt-cinquième mission, Langelot sur la Côte d'Azur, puisqu'il se rendra à Formentera, l'autre grande île habitée de l'archipel des Pityuses.</t>
         </is>
       </c>
